--- a/Dataset_Lean_h0/Dataset_h0.xlsx
+++ b/Dataset_Lean_h0/Dataset_h0.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+  <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Documents\Proj inz\Dataset_Lean_h0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6664CECC-ACA3-4B5A-A793-59CA8ED4369C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9014AC-02EA-4075-A4E7-37660D521EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1875" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Img</t>
   </si>
@@ -74,13 +74,16 @@
   <si>
     <t>PP</t>
   </si>
+  <si>
+    <t>Ratio to PET</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -156,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,7 +200,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2101,16 +2111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2401,10 +2411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Arkusz1"/>
   <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,6 +2424,7 @@
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2435,6 +2447,9 @@
       <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2446,7 +2461,7 @@
       <c r="C3" s="5">
         <v>427</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>3.8</v>
       </c>
       <c r="E3" s="2">
@@ -2459,6 +2474,10 @@
       <c r="G3" s="3">
         <f>C3-(C3-B3*(1-(E3/100))*4)</f>
         <v>219.78</v>
+      </c>
+      <c r="H3" s="16">
+        <f>$C$3/C3</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2471,7 +2490,7 @@
       <c r="C4" s="11">
         <v>89</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>3.3</v>
       </c>
       <c r="E4" s="12">
@@ -2484,6 +2503,10 @@
       <c r="G4" s="13">
         <f>C4-(C4-B4*(1-(E4/100))*4)</f>
         <v>60.048000000000002</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" ref="H4:H8" si="0">$C$3/C4</f>
+        <v>4.797752808988764</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2496,19 +2519,23 @@
       <c r="C5" s="11">
         <v>76</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <v>4</v>
       </c>
       <c r="E5" s="12">
         <v>100</v>
       </c>
       <c r="F5" s="13">
-        <f t="shared" ref="F5:F8" si="0">(C5-B5*(1-(E5/100))*4)</f>
+        <f t="shared" ref="F5:F8" si="1">(C5-B5*(1-(E5/100))*4)</f>
         <v>76</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" ref="G5:G8" si="1">C5-(C5-B5*(1-(E5/100))*4)</f>
+        <f t="shared" ref="G5:G8" si="2">C5-(C5-B5*(1-(E5/100))*4)</f>
         <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>5.6184210526315788</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2521,19 +2548,23 @@
       <c r="C6" s="11">
         <v>370</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="13">
         <v>3.9</v>
       </c>
       <c r="E6" s="12">
         <v>84.4</v>
       </c>
       <c r="F6" s="13">
+        <f t="shared" si="1"/>
+        <v>310.096</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="2"/>
+        <v>59.903999999999996</v>
+      </c>
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
-        <v>310.096</v>
-      </c>
-      <c r="G6" s="13">
-        <f t="shared" si="1"/>
-        <v>59.903999999999996</v>
+        <v>1.154054054054054</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2546,19 +2577,23 @@
       <c r="C7" s="11">
         <v>110</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>3.9</v>
       </c>
       <c r="E7" s="12">
         <v>57.1</v>
       </c>
       <c r="F7" s="13">
+        <f t="shared" si="1"/>
+        <v>61.952000000000005</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="2"/>
+        <v>48.047999999999995</v>
+      </c>
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
-        <v>61.952000000000005</v>
-      </c>
-      <c r="G7" s="13">
-        <f t="shared" si="1"/>
-        <v>48.047999999999995</v>
+        <v>3.8818181818181818</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2571,19 +2606,23 @@
       <c r="C8" s="4">
         <v>94</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="17">
         <v>3.8</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
       </c>
       <c r="F8" s="13">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.542553191489362</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2598,7 +2637,7 @@
         <f>SUM(C3:C8)</f>
         <v>1166</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="3">
         <f>AVERAGE(D3:D8)</f>
         <v>3.7833333333333332</v>
       </c>
@@ -2607,11 +2646,11 @@
         <v>72.733333333333334</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" ref="F9:G9" si="2">SUM(F3:F8)</f>
+        <f t="shared" ref="F9:G9" si="3">SUM(F3:F8)</f>
         <v>778.22</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>387.78</v>
       </c>
       <c r="H9" s="1"/>

--- a/Dataset_Lean_h0/Dataset_h0.xlsx
+++ b/Dataset_Lean_h0/Dataset_h0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Documents\Proj inz\Dataset_Lean_h0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9014AC-02EA-4075-A4E7-37660D521EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37429DB-4F6A-484C-A7D7-620C096DBA49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1875" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-2190" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Img</t>
   </si>
   <si>
     <t>Img/Obj</t>
-  </si>
-  <si>
-    <t>% of mine own</t>
   </si>
   <si>
     <t xml:space="preserve">PET </t>
@@ -60,12 +57,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>My Img</t>
-  </si>
-  <si>
-    <t>Wadaba Img</t>
-  </si>
-  <si>
     <t>Sum:</t>
   </si>
   <si>
@@ -75,7 +66,31 @@
     <t>PP</t>
   </si>
   <si>
-    <t>Ratio to PET</t>
+    <t>% of mine</t>
+  </si>
+  <si>
+    <t>Wadaba</t>
+  </si>
+  <si>
+    <t>Nowe</t>
+  </si>
+  <si>
+    <t>obiekty</t>
+  </si>
+  <si>
+    <t>zdjęcia</t>
+  </si>
+  <si>
+    <t>/obiekt</t>
+  </si>
+  <si>
+    <t>nowe</t>
+  </si>
+  <si>
+    <t>PET </t>
+  </si>
+  <si>
+    <t>Suma:</t>
   </si>
 </sst>
 </file>
@@ -159,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,12 +218,29 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,62 +591,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Img per Class</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -626,11 +603,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$F$2</c:f>
+              <c:f>Arkusz1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>My Img</c:v>
+                  <c:v>Nowe</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -673,7 +650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$F$3:$F$8</c:f>
+              <c:f>Arkusz1!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -709,11 +686,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$G$2</c:f>
+              <c:f>Arkusz1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Wadaba Img</c:v>
+                  <c:v>Wadaba</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -756,7 +733,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$G$3:$G$8</c:f>
+              <c:f>Arkusz1!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2112,15 +2089,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>608133</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600807</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2412,25 +2389,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A2:H9"/>
+  <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>0</v>
@@ -2439,21 +2416,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="6">
         <v>111</v>
@@ -2464,25 +2438,21 @@
       <c r="D3" s="3">
         <v>3.8</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
+        <f>(C3-B3*(1-(G3/100))*4)</f>
+        <v>207.22</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3-(C3-B3*(1-(G3/100))*4)</f>
+        <v>219.78</v>
+      </c>
+      <c r="G3" s="2">
         <v>50.5</v>
       </c>
-      <c r="F3" s="3">
-        <f>(C3-B3*(1-(E3/100))*4)</f>
-        <v>207.22</v>
-      </c>
-      <c r="G3" s="3">
-        <f>C3-(C3-B3*(1-(E3/100))*4)</f>
-        <v>219.78</v>
-      </c>
-      <c r="H3" s="16">
-        <f>$C$3/C3</f>
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7">
         <v>27</v>
@@ -2493,25 +2463,21 @@
       <c r="D4" s="13">
         <v>3.3</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="13">
+        <f>(C4-B4*(1-(G4/100))*4)</f>
+        <v>28.951999999999998</v>
+      </c>
+      <c r="F4" s="13">
+        <f>C4-(C4-B4*(1-(G4/100))*4)</f>
+        <v>60.048000000000002</v>
+      </c>
+      <c r="G4" s="12">
         <v>44.4</v>
       </c>
-      <c r="F4" s="13">
-        <f>(C4-B4*(1-(E4/100))*4)</f>
-        <v>28.951999999999998</v>
-      </c>
-      <c r="G4" s="13">
-        <f>C4-(C4-B4*(1-(E4/100))*4)</f>
-        <v>60.048000000000002</v>
-      </c>
-      <c r="H4" s="16">
-        <f t="shared" ref="H4:H8" si="0">$C$3/C4</f>
-        <v>4.797752808988764</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7">
         <v>19</v>
@@ -2522,25 +2488,21 @@
       <c r="D5" s="13">
         <v>4</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="13">
+        <f>(C5-B5*(1-(G5/100))*4)</f>
+        <v>76</v>
+      </c>
+      <c r="F5" s="13">
+        <f>C5-(C5-B5*(1-(G5/100))*4)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
         <v>100</v>
       </c>
-      <c r="F5" s="13">
-        <f t="shared" ref="F5:F8" si="1">(C5-B5*(1-(E5/100))*4)</f>
-        <v>76</v>
-      </c>
-      <c r="G5" s="13">
-        <f t="shared" ref="G5:G8" si="2">C5-(C5-B5*(1-(E5/100))*4)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>5.6184210526315788</v>
-      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="7">
         <v>96</v>
@@ -2551,25 +2513,21 @@
       <c r="D6" s="13">
         <v>3.9</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
+        <f>(C6-B6*(1-(G6/100))*4)</f>
+        <v>310.096</v>
+      </c>
+      <c r="F6" s="13">
+        <f>C6-(C6-B6*(1-(G6/100))*4)</f>
+        <v>59.903999999999996</v>
+      </c>
+      <c r="G6" s="12">
         <v>84.4</v>
       </c>
-      <c r="F6" s="13">
-        <f t="shared" si="1"/>
-        <v>310.096</v>
-      </c>
-      <c r="G6" s="13">
-        <f t="shared" si="2"/>
-        <v>59.903999999999996</v>
-      </c>
-      <c r="H6" s="16">
-        <f t="shared" si="0"/>
-        <v>1.154054054054054</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7">
         <v>28</v>
@@ -2580,25 +2538,21 @@
       <c r="D7" s="13">
         <v>3.9</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="13">
+        <f>(C7-B7*(1-(G7/100))*4)</f>
+        <v>61.952000000000005</v>
+      </c>
+      <c r="F7" s="13">
+        <f>C7-(C7-B7*(1-(G7/100))*4)</f>
+        <v>48.047999999999995</v>
+      </c>
+      <c r="G7" s="12">
         <v>57.1</v>
       </c>
-      <c r="F7" s="13">
-        <f t="shared" si="1"/>
-        <v>61.952000000000005</v>
-      </c>
-      <c r="G7" s="13">
-        <f t="shared" si="2"/>
-        <v>48.047999999999995</v>
-      </c>
-      <c r="H7" s="16">
-        <f t="shared" si="0"/>
-        <v>3.8818181818181818</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7">
         <v>25</v>
@@ -2606,28 +2560,24 @@
       <c r="C8" s="4">
         <v>94</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>3.8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="13">
+        <f>(C8-B8*(1-(G8/100))*4)</f>
+        <v>94</v>
+      </c>
+      <c r="F8" s="13">
+        <f>C8-(C8-B8*(1-(G8/100))*4)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>100</v>
       </c>
-      <c r="F8" s="13">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <f t="shared" si="0"/>
-        <v>4.542553191489362</v>
-      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6">
         <f>SUM(B3:B8)</f>
@@ -2641,21 +2591,309 @@
         <f>AVERAGE(D3:D8)</f>
         <v>3.7833333333333332</v>
       </c>
-      <c r="E9" s="14">
-        <f>AVERAGE(E3:E8)</f>
+      <c r="E9" s="3">
+        <f t="shared" ref="E9:F9" si="0">SUM(E3:E8)</f>
+        <v>778.22</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>387.78</v>
+      </c>
+      <c r="G9" s="14">
+        <f>AVERAGE(G3:G8)</f>
         <v>72.733333333333334</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" ref="F9:G9" si="3">SUM(F3:F8)</f>
-        <v>778.22</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="3"/>
-        <v>387.78</v>
-      </c>
-      <c r="H9" s="1"/>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="18"/>
+      <c r="J18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="20">
+        <v>111</v>
+      </c>
+      <c r="K22" s="20">
+        <v>427</v>
+      </c>
+      <c r="L22" s="20">
+        <v>4</v>
+      </c>
+      <c r="M22" s="20">
+        <v>207</v>
+      </c>
+      <c r="N22" s="20">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="20">
+        <v>27</v>
+      </c>
+      <c r="K24" s="20">
+        <v>89</v>
+      </c>
+      <c r="L24" s="20">
+        <v>3</v>
+      </c>
+      <c r="M24" s="20">
+        <v>29</v>
+      </c>
+      <c r="N24" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+    </row>
+    <row r="26" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="20">
+        <v>19</v>
+      </c>
+      <c r="K26" s="20">
+        <v>76</v>
+      </c>
+      <c r="L26" s="20">
+        <v>4</v>
+      </c>
+      <c r="M26" s="20">
+        <v>76</v>
+      </c>
+      <c r="N26" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+    </row>
+    <row r="28" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="20">
+        <v>96</v>
+      </c>
+      <c r="K28" s="20">
+        <v>370</v>
+      </c>
+      <c r="L28" s="20">
+        <v>4</v>
+      </c>
+      <c r="M28" s="20">
+        <v>310</v>
+      </c>
+      <c r="N28" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+    </row>
+    <row r="30" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I30" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="20">
+        <v>28</v>
+      </c>
+      <c r="K30" s="20">
+        <v>110</v>
+      </c>
+      <c r="L30" s="20">
+        <v>4</v>
+      </c>
+      <c r="M30" s="20">
+        <v>62</v>
+      </c>
+      <c r="N30" s="20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="32" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="20">
+        <v>25</v>
+      </c>
+      <c r="K32" s="20">
+        <v>94</v>
+      </c>
+      <c r="L32" s="20">
+        <v>4</v>
+      </c>
+      <c r="M32" s="20">
+        <v>94</v>
+      </c>
+      <c r="N32" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="21">
+        <v>306</v>
+      </c>
+      <c r="K34" s="21">
+        <v>1166</v>
+      </c>
+      <c r="L34" s="22"/>
+      <c r="M34" s="20">
+        <v>778</v>
+      </c>
+      <c r="N34" s="20">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I35" s="19"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Dataset_Lean_h0/Dataset_h0.xlsx
+++ b/Dataset_Lean_h0/Dataset_h0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filippo\Documents\Proj inz\Dataset_Lean_h0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37429DB-4F6A-484C-A7D7-620C096DBA49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5489CF1A-5CB5-4351-8802-EBADF18B3F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-2190" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Img</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Suma:</t>
+  </si>
+  <si>
+    <t>PET Img/ Img</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,13 +231,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -242,6 +239,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2392,7 +2399,7 @@
   <dimension ref="A2:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,7 +2411,7 @@
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="10" t="s">
         <v>8</v>
@@ -2424,8 +2431,11 @@
       <c r="G2" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="H2" s="23" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -2439,18 +2449,25 @@
         <v>3.8</v>
       </c>
       <c r="E3" s="3">
-        <f>(C3-B3*(1-(G3/100))*4)</f>
+        <f t="shared" ref="E3:E8" si="0">(C3-B3*(1-(G3/100))*4)</f>
         <v>207.22</v>
       </c>
       <c r="F3" s="3">
-        <f>C3-(C3-B3*(1-(G3/100))*4)</f>
+        <f t="shared" ref="F3:F8" si="1">C3-(C3-B3*(1-(G3/100))*4)</f>
         <v>219.78</v>
       </c>
       <c r="G3" s="2">
         <v>50.5</v>
       </c>
+      <c r="H3" s="24">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>C3*H3</f>
+        <v>427</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2464,18 +2481,25 @@
         <v>3.3</v>
       </c>
       <c r="E4" s="13">
-        <f>(C4-B4*(1-(G4/100))*4)</f>
+        <f t="shared" si="0"/>
         <v>28.951999999999998</v>
       </c>
       <c r="F4" s="13">
-        <f>C4-(C4-B4*(1-(G4/100))*4)</f>
+        <f t="shared" si="1"/>
         <v>60.048000000000002</v>
       </c>
       <c r="G4" s="12">
         <v>44.4</v>
       </c>
+      <c r="H4" s="24">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I8" si="2">C4*H4</f>
+        <v>356</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2489,18 +2513,25 @@
         <v>4</v>
       </c>
       <c r="E5" s="13">
-        <f>(C5-B5*(1-(G5/100))*4)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="F5" s="13">
-        <f>C5-(C5-B5*(1-(G5/100))*4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="12">
         <v>100</v>
       </c>
+      <c r="H5" s="24">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f>C5*H5</f>
+        <v>304</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -2514,18 +2545,25 @@
         <v>3.9</v>
       </c>
       <c r="E6" s="13">
-        <f>(C6-B6*(1-(G6/100))*4)</f>
+        <f t="shared" si="0"/>
         <v>310.096</v>
       </c>
       <c r="F6" s="13">
-        <f>C6-(C6-B6*(1-(G6/100))*4)</f>
+        <f t="shared" si="1"/>
         <v>59.903999999999996</v>
       </c>
       <c r="G6" s="12">
         <v>84.4</v>
       </c>
+      <c r="H6" s="24">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -2539,18 +2577,25 @@
         <v>3.9</v>
       </c>
       <c r="E7" s="13">
-        <f>(C7-B7*(1-(G7/100))*4)</f>
+        <f t="shared" si="0"/>
         <v>61.952000000000005</v>
       </c>
       <c r="F7" s="13">
-        <f>C7-(C7-B7*(1-(G7/100))*4)</f>
+        <f t="shared" si="1"/>
         <v>48.047999999999995</v>
       </c>
       <c r="G7" s="12">
         <v>57.1</v>
       </c>
+      <c r="H7" s="24">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -2564,18 +2609,25 @@
         <v>3.8</v>
       </c>
       <c r="E8" s="13">
-        <f>(C8-B8*(1-(G8/100))*4)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="F8" s="13">
-        <f>C8-(C8-B8*(1-(G8/100))*4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
       </c>
+      <c r="H8" s="24">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>376</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -2592,11 +2644,11 @@
         <v>3.7833333333333332</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" ref="E9:F9" si="0">SUM(E3:E8)</f>
+        <f t="shared" ref="E9:F9" si="3">SUM(E3:E8)</f>
         <v>778.22</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>387.78</v>
       </c>
       <c r="G9" s="14">
@@ -2605,11 +2657,11 @@
       </c>
     </row>
     <row r="18" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I18" s="18"/>
-      <c r="J18" s="19" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L18" s="17" t="s">
@@ -2623,17 +2675,17 @@
       </c>
     </row>
     <row r="19" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="17" t="s">
         <v>15</v>
       </c>
@@ -2645,238 +2697,215 @@
       </c>
     </row>
     <row r="21" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
     </row>
     <row r="22" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="21">
         <v>111</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="21">
         <v>427</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="21">
         <v>4</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="21">
         <v>207</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="21">
         <v>220</v>
       </c>
     </row>
     <row r="23" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="21">
         <v>27</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="21">
         <v>89</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="21">
         <v>3</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="21">
         <v>29</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="21">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="21">
         <v>19</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="21">
         <v>76</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="21">
         <v>4</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="21">
         <v>76</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="21">
         <v>96</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="21">
         <v>370</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="21">
         <v>4</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="21">
         <v>310</v>
       </c>
-      <c r="N28" s="20">
+      <c r="N28" s="21">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
     </row>
     <row r="30" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="21">
         <v>28</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="21">
         <v>110</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="21">
         <v>4</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="21">
         <v>62</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N30" s="21">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
     </row>
     <row r="32" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="21">
         <v>25</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="21">
         <v>94</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="21">
         <v>4</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="21">
         <v>94</v>
       </c>
-      <c r="N32" s="20">
+      <c r="N32" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="19">
         <v>306</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="19">
         <v>1166</v>
       </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="20">
+      <c r="L34" s="20"/>
+      <c r="M34" s="21">
         <v>778</v>
       </c>
-      <c r="N34" s="20">
+      <c r="N34" s="21">
         <v>388</v>
       </c>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I35" s="19"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="M22:M23"/>
@@ -2887,12 +2916,35 @@
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="M24:M25"/>
     <mergeCell ref="N24:N25"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
